--- a/test/schedule.xlsx
+++ b/test/schedule.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -522,7 +522,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
